--- a/natmiOut/YoungD2/LR-pairs_lrc2p/S100a9-Tlr4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/S100a9-Tlr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -88,13 +94,7 @@
     <t>Tlr4</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>5.76759335608878</v>
+        <v>0.07477033333333334</v>
       </c>
       <c r="H2">
-        <v>5.76759335608878</v>
+        <v>0.224311</v>
       </c>
       <c r="I2">
-        <v>0.001341810349586871</v>
+        <v>1.596509572667761E-05</v>
       </c>
       <c r="J2">
-        <v>0.001341810349586871</v>
+        <v>1.596509572667761E-05</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.03289190731455</v>
+        <v>4.752338666666668</v>
       </c>
       <c r="N2">
-        <v>3.03289190731455</v>
+        <v>14.257016</v>
       </c>
       <c r="O2">
-        <v>0.02858731215378319</v>
+        <v>0.04151639666945049</v>
       </c>
       <c r="P2">
-        <v>0.02858731215378319</v>
+        <v>0.04151639666945049</v>
       </c>
       <c r="Q2">
-        <v>17.49248721436283</v>
+        <v>0.3553339462195557</v>
       </c>
       <c r="R2">
-        <v>17.49248721436283</v>
+        <v>3.198005515976</v>
       </c>
       <c r="S2">
-        <v>3.835875131481683E-05</v>
+        <v>6.628132470544964E-07</v>
       </c>
       <c r="T2">
-        <v>3.835875131481683E-05</v>
+        <v>6.628132470544964E-07</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>5.76759335608878</v>
+        <v>0.07477033333333334</v>
       </c>
       <c r="H3">
-        <v>5.76759335608878</v>
+        <v>0.224311</v>
       </c>
       <c r="I3">
-        <v>0.001341810349586871</v>
+        <v>1.596509572667761E-05</v>
       </c>
       <c r="J3">
-        <v>0.001341810349586871</v>
+        <v>1.596509572667761E-05</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.09443306800975</v>
+        <v>7.095953333333333</v>
       </c>
       <c r="N3">
-        <v>7.09443306800975</v>
+        <v>21.28786</v>
       </c>
       <c r="O3">
-        <v>0.06687042560936295</v>
+        <v>0.06199019766855336</v>
       </c>
       <c r="P3">
-        <v>0.06687042560936295</v>
+        <v>0.06199019766855336</v>
       </c>
       <c r="Q3">
-        <v>40.91780502826958</v>
+        <v>0.5305667960511111</v>
       </c>
       <c r="R3">
-        <v>40.91780502826958</v>
+        <v>4.77510116446</v>
       </c>
       <c r="S3">
-        <v>8.972742916392214E-05</v>
+        <v>9.896794398941215E-07</v>
       </c>
       <c r="T3">
-        <v>8.972742916392214E-05</v>
+        <v>9.896794398941215E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>5.76759335608878</v>
+        <v>0.07477033333333334</v>
       </c>
       <c r="H4">
-        <v>5.76759335608878</v>
+        <v>0.224311</v>
       </c>
       <c r="I4">
-        <v>0.001341810349586871</v>
+        <v>1.596509572667761E-05</v>
       </c>
       <c r="J4">
-        <v>0.001341810349586871</v>
+        <v>1.596509572667761E-05</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.7615038984025</v>
+        <v>27.34521433333333</v>
       </c>
       <c r="N4">
-        <v>23.7615038984025</v>
+        <v>82.03564300000001</v>
       </c>
       <c r="O4">
-        <v>0.2239702402676228</v>
+        <v>0.238887597223811</v>
       </c>
       <c r="P4">
-        <v>0.2239702402676228</v>
+        <v>0.238887597223811</v>
       </c>
       <c r="Q4">
-        <v>137.0466920151039</v>
+        <v>2.044610790774778</v>
       </c>
       <c r="R4">
-        <v>137.0466920151039</v>
+        <v>18.401497116973</v>
       </c>
       <c r="S4">
-        <v>0.0003005255863905544</v>
+        <v>3.813863357594147E-06</v>
       </c>
       <c r="T4">
-        <v>0.0003005255863905544</v>
+        <v>3.813863357594147E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>5.76759335608878</v>
+        <v>0.07477033333333334</v>
       </c>
       <c r="H5">
-        <v>5.76759335608878</v>
+        <v>0.224311</v>
       </c>
       <c r="I5">
-        <v>0.001341810349586871</v>
+        <v>1.596509572667761E-05</v>
       </c>
       <c r="J5">
-        <v>0.001341810349586871</v>
+        <v>1.596509572667761E-05</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.7209827432616</v>
+        <v>19.73820233333333</v>
       </c>
       <c r="N5">
-        <v>19.7209827432616</v>
+        <v>59.214607</v>
       </c>
       <c r="O5">
-        <v>0.1858852563460386</v>
+        <v>0.1724327946912327</v>
       </c>
       <c r="P5">
-        <v>0.1858852563460386</v>
+        <v>0.1724327946912327</v>
       </c>
       <c r="Q5">
-        <v>113.7426090455771</v>
+        <v>1.475831967864111</v>
       </c>
       <c r="R5">
-        <v>113.7426090455771</v>
+        <v>13.282487710777</v>
       </c>
       <c r="S5">
-        <v>0.0002494227608007231</v>
+        <v>2.752906073664076E-06</v>
       </c>
       <c r="T5">
-        <v>0.0002494227608007231</v>
+        <v>2.752906073664076E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>5.76759335608878</v>
+        <v>0.07477033333333334</v>
       </c>
       <c r="H6">
-        <v>5.76759335608878</v>
+        <v>0.224311</v>
       </c>
       <c r="I6">
-        <v>0.001341810349586871</v>
+        <v>1.596509572667761E-05</v>
       </c>
       <c r="J6">
-        <v>0.001341810349586871</v>
+        <v>1.596509572667761E-05</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>49.0763680599753</v>
+        <v>51.532109</v>
       </c>
       <c r="N6">
-        <v>49.0763680599753</v>
+        <v>154.596327</v>
       </c>
       <c r="O6">
-        <v>0.4625820820454858</v>
+        <v>0.4501841363839443</v>
       </c>
       <c r="P6">
-        <v>0.4625820820454858</v>
+        <v>0.4501841363839443</v>
       </c>
       <c r="Q6">
-        <v>283.0525343636812</v>
+        <v>3.853072967299667</v>
       </c>
       <c r="R6">
-        <v>283.0525343636812</v>
+        <v>34.677656705697</v>
       </c>
       <c r="S6">
-        <v>0.0006206974252220759</v>
+        <v>7.18723283200136E-06</v>
       </c>
       <c r="T6">
-        <v>0.0006206974252220759</v>
+        <v>7.18723283200136E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -850,49 +850,49 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>5.76759335608878</v>
+        <v>0.07477033333333334</v>
       </c>
       <c r="H7">
-        <v>5.76759335608878</v>
+        <v>0.224311</v>
       </c>
       <c r="I7">
-        <v>0.001341810349586871</v>
+        <v>1.596509572667761E-05</v>
       </c>
       <c r="J7">
-        <v>0.001341810349586871</v>
+        <v>1.596509572667761E-05</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.40605771140451</v>
+        <v>4.005140333333333</v>
       </c>
       <c r="N7">
-        <v>3.40605771140451</v>
+        <v>12.015421</v>
       </c>
       <c r="O7">
-        <v>0.03210468357770675</v>
+        <v>0.03498887736300817</v>
       </c>
       <c r="P7">
-        <v>0.03210468357770675</v>
+        <v>0.03498887736300817</v>
       </c>
       <c r="Q7">
-        <v>19.64475582675161</v>
+        <v>0.2994656777701111</v>
       </c>
       <c r="R7">
-        <v>19.64475582675161</v>
+        <v>2.695191099931</v>
       </c>
       <c r="S7">
-        <v>4.307839669477856E-05</v>
+        <v>5.586007764694087E-07</v>
       </c>
       <c r="T7">
-        <v>4.307839669477856E-05</v>
+        <v>5.586007764694087E-07</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4292.5994283803</v>
+        <v>53.36643533333334</v>
       </c>
       <c r="H8">
-        <v>4292.5994283803</v>
+        <v>160.099306</v>
       </c>
       <c r="I8">
-        <v>0.9986581896504132</v>
+        <v>0.01139489702272582</v>
       </c>
       <c r="J8">
-        <v>0.9986581896504132</v>
+        <v>0.01139489702272582</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.03289190731455</v>
+        <v>4.752338666666668</v>
       </c>
       <c r="N8">
-        <v>3.03289190731455</v>
+        <v>14.257016</v>
       </c>
       <c r="O8">
-        <v>0.02858731215378319</v>
+        <v>0.04151639666945049</v>
       </c>
       <c r="P8">
-        <v>0.02858731215378319</v>
+        <v>0.04151639666945049</v>
       </c>
       <c r="Q8">
-        <v>13018.99006767768</v>
+        <v>253.6153741367663</v>
       </c>
       <c r="R8">
-        <v>13018.99006767768</v>
+        <v>2282.538367230897</v>
       </c>
       <c r="S8">
-        <v>0.02854895340246838</v>
+        <v>0.0004730750648030254</v>
       </c>
       <c r="T8">
-        <v>0.02854895340246838</v>
+        <v>0.0004730750648030254</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4292.5994283803</v>
+        <v>53.36643533333334</v>
       </c>
       <c r="H9">
-        <v>4292.5994283803</v>
+        <v>160.099306</v>
       </c>
       <c r="I9">
-        <v>0.9986581896504132</v>
+        <v>0.01139489702272582</v>
       </c>
       <c r="J9">
-        <v>0.9986581896504132</v>
+        <v>0.01139489702272582</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.09443306800975</v>
+        <v>7.095953333333333</v>
       </c>
       <c r="N9">
-        <v>7.09443306800975</v>
+        <v>21.28786</v>
       </c>
       <c r="O9">
-        <v>0.06687042560936295</v>
+        <v>0.06199019766855336</v>
       </c>
       <c r="P9">
-        <v>0.06687042560936295</v>
+        <v>0.06199019766855336</v>
       </c>
       <c r="Q9">
-        <v>30453.55933242095</v>
+        <v>378.6857346916844</v>
       </c>
       <c r="R9">
-        <v>30453.55933242095</v>
+        <v>3408.17161222516</v>
       </c>
       <c r="S9">
-        <v>0.06678069818019902</v>
+        <v>0.0007063719188515836</v>
       </c>
       <c r="T9">
-        <v>0.06678069818019902</v>
+        <v>0.0007063719188515836</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4292.5994283803</v>
+        <v>53.36643533333334</v>
       </c>
       <c r="H10">
-        <v>4292.5994283803</v>
+        <v>160.099306</v>
       </c>
       <c r="I10">
-        <v>0.9986581896504132</v>
+        <v>0.01139489702272582</v>
       </c>
       <c r="J10">
-        <v>0.9986581896504132</v>
+        <v>0.01139489702272582</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.7615038984025</v>
+        <v>27.34521433333333</v>
       </c>
       <c r="N10">
-        <v>23.7615038984025</v>
+        <v>82.03564300000001</v>
       </c>
       <c r="O10">
-        <v>0.2239702402676228</v>
+        <v>0.238887597223811</v>
       </c>
       <c r="P10">
-        <v>0.2239702402676228</v>
+        <v>0.238887597223811</v>
       </c>
       <c r="Q10">
-        <v>101998.6180517388</v>
+        <v>1459.316612395973</v>
       </c>
       <c r="R10">
-        <v>101998.6180517388</v>
+        <v>13133.84951156376</v>
       </c>
       <c r="S10">
-        <v>0.2236697146812322</v>
+        <v>0.002722099570371728</v>
       </c>
       <c r="T10">
-        <v>0.2236697146812322</v>
+        <v>0.002722099570371728</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4292.5994283803</v>
+        <v>53.36643533333334</v>
       </c>
       <c r="H11">
-        <v>4292.5994283803</v>
+        <v>160.099306</v>
       </c>
       <c r="I11">
-        <v>0.9986581896504132</v>
+        <v>0.01139489702272582</v>
       </c>
       <c r="J11">
-        <v>0.9986581896504132</v>
+        <v>0.01139489702272582</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.7209827432616</v>
+        <v>19.73820233333333</v>
       </c>
       <c r="N11">
-        <v>19.7209827432616</v>
+        <v>59.214607</v>
       </c>
       <c r="O11">
-        <v>0.1858852563460386</v>
+        <v>0.1724327946912327</v>
       </c>
       <c r="P11">
-        <v>0.1858852563460386</v>
+        <v>0.1724327946912327</v>
       </c>
       <c r="Q11">
-        <v>84654.27925082251</v>
+        <v>1053.357498418083</v>
       </c>
       <c r="R11">
-        <v>84654.27925082251</v>
+        <v>9480.217485762743</v>
       </c>
       <c r="S11">
-        <v>0.1856358335852379</v>
+        <v>0.001964853938847419</v>
       </c>
       <c r="T11">
-        <v>0.1856358335852379</v>
+        <v>0.001964853938847419</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4292.5994283803</v>
+        <v>53.36643533333334</v>
       </c>
       <c r="H12">
-        <v>4292.5994283803</v>
+        <v>160.099306</v>
       </c>
       <c r="I12">
-        <v>0.9986581896504132</v>
+        <v>0.01139489702272582</v>
       </c>
       <c r="J12">
-        <v>0.9986581896504132</v>
+        <v>0.01139489702272582</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>49.0763680599753</v>
+        <v>51.532109</v>
       </c>
       <c r="N12">
-        <v>49.0763680599753</v>
+        <v>154.596327</v>
       </c>
       <c r="O12">
-        <v>0.4625820820454858</v>
+        <v>0.4501841363839443</v>
       </c>
       <c r="P12">
-        <v>0.4625820820454858</v>
+        <v>0.4501841363839443</v>
       </c>
       <c r="Q12">
-        <v>210665.1894812312</v>
+        <v>2750.084962538785</v>
       </c>
       <c r="R12">
-        <v>210665.1894812312</v>
+        <v>24750.76466284907</v>
       </c>
       <c r="S12">
-        <v>0.4619613846202638</v>
+        <v>0.0051298018753598</v>
       </c>
       <c r="T12">
-        <v>0.4619613846202638</v>
+        <v>0.0051298018753598</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,805 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4292.5994283803</v>
+        <v>53.36643533333334</v>
       </c>
       <c r="H13">
-        <v>4292.5994283803</v>
+        <v>160.099306</v>
       </c>
       <c r="I13">
-        <v>0.9986581896504132</v>
+        <v>0.01139489702272582</v>
       </c>
       <c r="J13">
-        <v>0.9986581896504132</v>
+        <v>0.01139489702272582</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.40605771140451</v>
+        <v>4.005140333333333</v>
       </c>
       <c r="N13">
-        <v>3.40605771140451</v>
+        <v>12.015421</v>
       </c>
       <c r="O13">
-        <v>0.03210468357770675</v>
+        <v>0.03498887736300817</v>
       </c>
       <c r="P13">
-        <v>0.03210468357770675</v>
+        <v>0.03498887736300817</v>
       </c>
       <c r="Q13">
-        <v>14620.84138500531</v>
+        <v>213.7400625997585</v>
       </c>
       <c r="R13">
-        <v>14620.84138500531</v>
+        <v>1923.660563397826</v>
       </c>
       <c r="S13">
-        <v>0.03206160518101197</v>
+        <v>0.0003986946544922606</v>
       </c>
       <c r="T13">
-        <v>0.03206160518101197</v>
+        <v>0.0003986946544922606</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>2.471593666666667</v>
+      </c>
+      <c r="H14">
+        <v>7.414781</v>
+      </c>
+      <c r="I14">
+        <v>0.0005277391142536492</v>
+      </c>
+      <c r="J14">
+        <v>0.0005277391142536492</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4.752338666666668</v>
+      </c>
+      <c r="N14">
+        <v>14.257016</v>
+      </c>
+      <c r="O14">
+        <v>0.04151639666945049</v>
+      </c>
+      <c r="P14">
+        <v>0.04151639666945049</v>
+      </c>
+      <c r="Q14">
+        <v>11.74585015038845</v>
+      </c>
+      <c r="R14">
+        <v>105.712651353496</v>
+      </c>
+      <c r="S14">
+        <v>2.190982640533895E-05</v>
+      </c>
+      <c r="T14">
+        <v>2.190982640533895E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>2.471593666666667</v>
+      </c>
+      <c r="H15">
+        <v>7.414781</v>
+      </c>
+      <c r="I15">
+        <v>0.0005277391142536492</v>
+      </c>
+      <c r="J15">
+        <v>0.0005277391142536492</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>7.095953333333333</v>
+      </c>
+      <c r="N15">
+        <v>21.28786</v>
+      </c>
+      <c r="O15">
+        <v>0.06199019766855336</v>
+      </c>
+      <c r="P15">
+        <v>0.06199019766855336</v>
+      </c>
+      <c r="Q15">
+        <v>17.53831331762889</v>
+      </c>
+      <c r="R15">
+        <v>157.84481985866</v>
+      </c>
+      <c r="S15">
+        <v>3.271465201001098E-05</v>
+      </c>
+      <c r="T15">
+        <v>3.271465201001098E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>2.471593666666667</v>
+      </c>
+      <c r="H16">
+        <v>7.414781</v>
+      </c>
+      <c r="I16">
+        <v>0.0005277391142536492</v>
+      </c>
+      <c r="J16">
+        <v>0.0005277391142536492</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>27.34521433333333</v>
+      </c>
+      <c r="N16">
+        <v>82.03564300000001</v>
+      </c>
+      <c r="O16">
+        <v>0.238887597223811</v>
+      </c>
+      <c r="P16">
+        <v>0.238887597223811</v>
+      </c>
+      <c r="Q16">
+        <v>67.58625855990923</v>
+      </c>
+      <c r="R16">
+        <v>608.276327039183</v>
+      </c>
+      <c r="S16">
+        <v>0.0001260703289650765</v>
+      </c>
+      <c r="T16">
+        <v>0.0001260703289650765</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>2.471593666666667</v>
+      </c>
+      <c r="H17">
+        <v>7.414781</v>
+      </c>
+      <c r="I17">
+        <v>0.0005277391142536492</v>
+      </c>
+      <c r="J17">
+        <v>0.0005277391142536492</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>19.73820233333333</v>
+      </c>
+      <c r="N17">
+        <v>59.214607</v>
+      </c>
+      <c r="O17">
+        <v>0.1724327946912327</v>
+      </c>
+      <c r="P17">
+        <v>0.1724327946912327</v>
+      </c>
+      <c r="Q17">
+        <v>48.78481587845189</v>
+      </c>
+      <c r="R17">
+        <v>439.063342906067</v>
+      </c>
+      <c r="S17">
+        <v>9.099953033863247E-05</v>
+      </c>
+      <c r="T17">
+        <v>9.099953033863247E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>2.471593666666667</v>
+      </c>
+      <c r="H18">
+        <v>7.414781</v>
+      </c>
+      <c r="I18">
+        <v>0.0005277391142536492</v>
+      </c>
+      <c r="J18">
+        <v>0.0005277391142536492</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>51.532109</v>
+      </c>
+      <c r="N18">
+        <v>154.596327</v>
+      </c>
+      <c r="O18">
+        <v>0.4501841363839443</v>
+      </c>
+      <c r="P18">
+        <v>0.4501841363839443</v>
+      </c>
+      <c r="Q18">
+        <v>127.3664342343763</v>
+      </c>
+      <c r="R18">
+        <v>1146.297908109387</v>
+      </c>
+      <c r="S18">
+        <v>0.0002375797773863068</v>
+      </c>
+      <c r="T18">
+        <v>0.0002375797773863068</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>2.471593666666667</v>
+      </c>
+      <c r="H19">
+        <v>7.414781</v>
+      </c>
+      <c r="I19">
+        <v>0.0005277391142536492</v>
+      </c>
+      <c r="J19">
+        <v>0.0005277391142536492</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>4.005140333333333</v>
+      </c>
+      <c r="N19">
+        <v>12.015421</v>
+      </c>
+      <c r="O19">
+        <v>0.03498887736300817</v>
+      </c>
+      <c r="P19">
+        <v>0.03498887736300817</v>
+      </c>
+      <c r="Q19">
+        <v>9.899079481977889</v>
+      </c>
+      <c r="R19">
+        <v>89.09171533780099</v>
+      </c>
+      <c r="S19">
+        <v>1.846499914828349E-05</v>
+      </c>
+      <c r="T19">
+        <v>1.846499914828349E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>4627.449869666667</v>
+      </c>
+      <c r="H20">
+        <v>13882.349609</v>
+      </c>
+      <c r="I20">
+        <v>0.9880613987672939</v>
+      </c>
+      <c r="J20">
+        <v>0.9880613987672939</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>4.752338666666668</v>
+      </c>
+      <c r="N20">
+        <v>14.257016</v>
+      </c>
+      <c r="O20">
+        <v>0.04151639666945049</v>
+      </c>
+      <c r="P20">
+        <v>0.04151639666945049</v>
+      </c>
+      <c r="Q20">
+        <v>21991.20894367853</v>
+      </c>
+      <c r="R20">
+        <v>197920.8804931068</v>
+      </c>
+      <c r="S20">
+        <v>0.04102074896499507</v>
+      </c>
+      <c r="T20">
+        <v>0.04102074896499507</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>4627.449869666667</v>
+      </c>
+      <c r="H21">
+        <v>13882.349609</v>
+      </c>
+      <c r="I21">
+        <v>0.9880613987672939</v>
+      </c>
+      <c r="J21">
+        <v>0.9880613987672939</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>7.095953333333333</v>
+      </c>
+      <c r="N21">
+        <v>21.28786</v>
+      </c>
+      <c r="O21">
+        <v>0.06199019766855336</v>
+      </c>
+      <c r="P21">
+        <v>0.06199019766855336</v>
+      </c>
+      <c r="Q21">
+        <v>32836.16832749408</v>
+      </c>
+      <c r="R21">
+        <v>295525.5149474468</v>
+      </c>
+      <c r="S21">
+        <v>0.06125012141825188</v>
+      </c>
+      <c r="T21">
+        <v>0.06125012141825188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>4627.449869666667</v>
+      </c>
+      <c r="H22">
+        <v>13882.349609</v>
+      </c>
+      <c r="I22">
+        <v>0.9880613987672939</v>
+      </c>
+      <c r="J22">
+        <v>0.9880613987672939</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>27.34521433333333</v>
+      </c>
+      <c r="N22">
+        <v>82.03564300000001</v>
+      </c>
+      <c r="O22">
+        <v>0.238887597223811</v>
+      </c>
+      <c r="P22">
+        <v>0.238887597223811</v>
+      </c>
+      <c r="Q22">
+        <v>126538.6085027904</v>
+      </c>
+      <c r="R22">
+        <v>1138847.476525114</v>
+      </c>
+      <c r="S22">
+        <v>0.2360356134611166</v>
+      </c>
+      <c r="T22">
+        <v>0.2360356134611166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>4627.449869666667</v>
+      </c>
+      <c r="H23">
+        <v>13882.349609</v>
+      </c>
+      <c r="I23">
+        <v>0.9880613987672939</v>
+      </c>
+      <c r="J23">
+        <v>0.9880613987672939</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>19.73820233333333</v>
+      </c>
+      <c r="N23">
+        <v>59.214607</v>
+      </c>
+      <c r="O23">
+        <v>0.1724327946912327</v>
+      </c>
+      <c r="P23">
+        <v>0.1724327946912327</v>
+      </c>
+      <c r="Q23">
+        <v>91337.54181483763</v>
+      </c>
+      <c r="R23">
+        <v>822037.8763335387</v>
+      </c>
+      <c r="S23">
+        <v>0.170374188315973</v>
+      </c>
+      <c r="T23">
+        <v>0.170374188315973</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>4627.449869666667</v>
+      </c>
+      <c r="H24">
+        <v>13882.349609</v>
+      </c>
+      <c r="I24">
+        <v>0.9880613987672939</v>
+      </c>
+      <c r="J24">
+        <v>0.9880613987672939</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>51.532109</v>
+      </c>
+      <c r="N24">
+        <v>154.596327</v>
+      </c>
+      <c r="O24">
+        <v>0.4501841363839443</v>
+      </c>
+      <c r="P24">
+        <v>0.4501841363839443</v>
+      </c>
+      <c r="Q24">
+        <v>238462.2510756985</v>
+      </c>
+      <c r="R24">
+        <v>2146160.259681286</v>
+      </c>
+      <c r="S24">
+        <v>0.4448095674983663</v>
+      </c>
+      <c r="T24">
+        <v>0.4448095674983663</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>4627.449869666667</v>
+      </c>
+      <c r="H25">
+        <v>13882.349609</v>
+      </c>
+      <c r="I25">
+        <v>0.9880613987672939</v>
+      </c>
+      <c r="J25">
+        <v>0.9880613987672939</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>4.005140333333333</v>
+      </c>
+      <c r="N25">
+        <v>12.015421</v>
+      </c>
+      <c r="O25">
+        <v>0.03498887736300817</v>
+      </c>
+      <c r="P25">
+        <v>0.03498887736300817</v>
+      </c>
+      <c r="Q25">
+        <v>18533.58611348004</v>
+      </c>
+      <c r="R25">
+        <v>166802.2750213204</v>
+      </c>
+      <c r="S25">
+        <v>0.03457115910859116</v>
+      </c>
+      <c r="T25">
+        <v>0.03457115910859116</v>
       </c>
     </row>
   </sheetData>
